--- a/ppt/테스트시나리오및결과서 이지훈.xlsx
+++ b/ppt/테스트시나리오및결과서 이지훈.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-19\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-19\git\TeamProject\ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1002,14 +1002,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 회원가입 성공 메시지 후 로그인 화면으로 이동
-2. 해당 사항의 중복체크를 해달라는 메시지 창 
-3. 모든 요구사항을 입력해달라는 메시지 창
-4. 회원가입 성공 메시지 후 로그인 화면으로 이동
-5. 해당 사항의 중복체크를 해달라는 메시지 창 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>특정 데이터를 비정상 입력</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1023,6 +1015,334 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>이지훈</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.23</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>부적합</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>부적합</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색창에서 게시물의 제목, 지역을 통한 검색과 지역 선택버튼으로 검색</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검색창에 게시물의 제목의 일부분 검색
+2. 검색창에서 지역으로 검색
+3. 지역 선택버튼으로 검색</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지훈</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 해당되는 상품만 검색 결과로 출력됨
+2. 해당되는 상품만 검색 결과로 출력됨</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>적합</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인하지 않은 상태에서 내정보, 물품등록, 쪽지 메뉴 선택</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 로그인 후 다시 로그아웃 하고 내정보, 물품등록, 쪽지 메뉴 선택</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면으로 이동</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>적합</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항을 입력하고 등록하기 버튼 클릭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진, 제목, 거래지역, 가격, 게시글 내용 미입력</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 사항이 입력되지 않았다는 메시지 창</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>적합</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 데이터 비정상 입력</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.23</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품상세페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이미지 4장 이상 등록
+2. 제목 30글자 이상 입력
+3. 가격에 숫자 외 입력
+4. 게시글 내용에 300자 이상 입력</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자에게 쪽지 보내기 기능, 자신이 쓴 글인 경우 삭제 버튼 활성화</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.23</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>적합</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>부적합</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보 수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 새 전화번호를 입력할 수 있는 창
+2. 새 이메일을 입력할 수 있는 창
+3. 새 주소를 입력할 수 있는 창
+4. 새 닉네임을 입력할 수 있는 창
+5. 비밀번호 변경 팝업 창
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>적합</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비밀번호 변경 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보에서 비밀번호 변경 버튼 클릭하고 비밀번호 변경</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 비밀번호 o 새 비밀번호와 새 비밀번호 확인 일치o
+2. 비밀번호 x 새 비밀번호와 새 비밀번호 확인 일치o
+3. 비밀번호 o, 새 비밀번호와 새 비밀번호 확인 일치 x </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>쪽지 화면</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">받은 쪽지함 , 보낸 쪽지함에 잘 나오는지 확인, 쪽지 보내기 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 쪽지 보내고 보낸 쪽지함 확인
+2. 쪽지 받고 받은 쪽지함 확인
+3. 받은 쪽지 클릭해서 답장하기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 보낸 쪽지함에 추가됨
+2. 받은 쪽지함에 추가됨
+3. 쪽지 보내기 창이 열리고 답장을 받을 사람의 닉네임이 추가되어있음</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근에 본 상품</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 클릭 후 최근 본 상품에 추가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 상품 클릭 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 클릭 후 최근 본 상품에 추가</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>적합</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 이후 로그인이 필요한 서비스 클릭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 내정보 , 물품등록, 쪽지 클릭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지훈</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>부적합</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 비밀번호가 변경되었다는 메시지 창, 로그인 화면으로 이동(1. 비밀번호가 16자리까지 입력 가능하다는 제한이 있음에도 안내메세지가 없어 사용자가 알 수 없음.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(부적합)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 새 비밀번호와 새 비밀번호 확인이 일치하지 않는다는 메시지</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 회원가입 성공 메시지 후 로그인 화면으로 이동
+2. 해당 사항의 중복체크를 해달라는 메시지 창 
+3. 모든 요구사항을 입력해달라는 메시지 창
+4. 회원가입 성공 메시지 후 로그인 화면으로 이동
+5. 해당 사항의 중복체크를 해달라는 메시지 창 (닉네임이 특정 특수문자인 경우 전체적으로 문제 발생)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(부적합)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 한글이나 특수문자는 입력 불가능
+2. 특수문자 입력 불가능하고 1자리 입력하고 중복체크 버튼 클릭할 경우에는 닉네임은 2~6자리로 입력해달라는 메시지 창, 7자리 이상은 입력 불가능
+3. 로그인 버튼 클릭 시 비밀번호와 비밀번호 확인이 다르다는 메시지 창
+4. 이름 입력란에 특수문자 입력 불가능
+5.  이메일 형식에 맞지 않는 입력도 가능.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(부적합)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 아이디에 한글, 특수문자 입력
 2. 닉네임에 특수문자 입력, 2~6자리를 벗어난 범위 입력
 3. 비밀번호와 비밀번호 확인란 다르게 입력
@@ -1031,138 +1351,34 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>이지훈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.23</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>부적합</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>부적합</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색창에서 게시물의 제목, 지역을 통한 검색과 지역 선택버튼으로 검색</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 검색창에 게시물의 제목의 일부분 검색
-2. 검색창에서 지역으로 검색
-3. 지역 선택버튼으로 검색</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>이지훈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 해당되는 상품만 검색 결과로 출력됨
-2. 해당되는 상품만 검색 결과로 출력됨</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>적합</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인하지 않은 상태에서 내정보, 물품등록, 쪽지 메뉴 선택</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 로그인 후 다시 로그아웃 하고 내정보, 물품등록, 쪽지 메뉴 선택</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면으로 이동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>적합</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>물품등록</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항을 입력하고 등록하기 버튼 클릭</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진, 제목, 거래지역, 가격, 게시글 내용 미입력</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 사항이 입력되지 않았다는 메시지 창</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>적합</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>물품등록</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 데이터 비정상 입력</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.23</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>물품상세페이지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 이미지 4장 이상 등록
-2. 제목 30글자 이상 입력
-3. 가격에 숫자 외 입력
-4. 게시글 내용에 300자 이상 입력</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자에게 쪽지 보내기 기능, 자신이 쓴 글인 경우 삭제 버튼 활성화</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 쪽지 보내기 클릭
-2. 게시글 삭제하기 클릭</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.23</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>적합</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>부적합</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>내정보 페이지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 정보 수정</t>
+    <r>
+      <t>1. 이미지는 4장 이상 등록 불가능하다는 메시지 창 전부 사라짐(1. 이미지를 4장 등록하고 추가로 등록할 경우 4장 까지만 등록 가능하다는 메시지 창 후에 현재 등록한 이미지가 전부 보이지 않게 되지만, 다시 4장을 등록하면 전에 등록했던 이미지까지 전부 등록됨)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(부적합)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 30자 넘게 입력 불가
+3. 숫자 외에는 입력 불가
+4. 300자 넘게는 입력 불가()
+</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1175,162 +1391,46 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 새 전화번호를 입력할 수 있는 창
-2. 새 이메일을 입력할 수 있는 창
-3. 새 주소를 입력할 수 있는 창
-4. 새 닉네임을 입력할 수 있는 창
-5. 비밀번호 변경 팝업 창
-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>적합</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비밀번호 변경 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>내정보에서 비밀번호 변경 버튼 클릭하고 비밀번호 변경</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 비밀번호 o 새 비밀번호와 새 비밀번호 확인 일치o
-2. 비밀번호 x 새 비밀번호와 새 비밀번호 확인 일치o
-3. 비밀번호 o, 새 비밀번호와 새 비밀번호 확인 일치 x </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>쪽지 화면</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">받은 쪽지함 , 보낸 쪽지함에 잘 나오는지 확인, 쪽지 보내기 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 쪽지 보내고 보낸 쪽지함 확인
-2. 쪽지 받고 받은 쪽지함 확인
-3. 받은 쪽지 클릭해서 답장하기</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 보낸 쪽지함에 추가됨
-2. 받은 쪽지함에 추가됨
-3. 쪽지 보내기 창이 열리고 답장을 받을 사람의 닉네임이 추가되어있음</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>최근에 본 상품</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 비밀번호가 변경되었다는 메시지 창, 로그인 화면으로 이동(1. 비밀번호가 16자리까지 입력 가능하다는 제한이 있음에도 안내메세지가 없어 사용자가 알 수 없음.)
-2. 새 비밀번호와 새 비밀번호 확인이 일치하지 않는다는 메시지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
+    <t>1. 쪽지 보내기 클릭
+2. 게시글 삭제하기 클릭
+3. 화면 출력</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 쪽지 보내기 창이 열리고 받는 사람에 상품 등록자의 닉네임이 나옴. 
+ 2. 정말 삭제하시겠습니까라는 확인과 취소할 수 있는 선택 창 후에 확인을 누르면 삭제되었습니다라는 메시지 창, 메인 화면으로 이동, 취소를 누르면 물품상세페이지에 그대로 있음 
+3. 물품 등록할 때 한 줄로 길게 쓰면 줄바꿈 되지 않고 화면을 벗어나서 길게 나옴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(부적합)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
 현재 비밀번호가 일치해도 현재 비밀번호 메시지가 일치하지 않는다는 메시지 창</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 한글이나 특수문자는 입력 불가능
-2. 특수문자 입력 불가능하고 1자리 입력하고 중복체크 버튼 클릭할 경우에는 닉네임은 2~6자리로 입력해달라는 메시지 창, 7자리 이상은 입력 불가능
-3. 로그인 버튼 클릭 시 비밀번호와 비밀번호 확인이 다르다는 메시지 창
-4. 이름 입력란에 특수문자 입력 불가능
-5. 3. 이메일 형식에 맞지 않는 입력도 가능.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 클릭 후 최근 본 상품에 추가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 상품 클릭 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 클릭 후 최근 본 상품에 추가</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>적합</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 이미지는 4장 이상 등록 불가능하다는 메시지 창 전부 사라짐(1. 이미지를 4장 등록하고 추가로 등록할 경우 4장 까지만 등록 가능하다는 메시지 창 후에 현재 등록한 이미지가 전부 보이지 않게 되지만, 다시 4장을 등록하면 전에 등록했던 이미지까지 전부 등록됨)
-2. 30자 넘게 입력 불가
-3. 숫자 외에는 입력 불가
-4. 300자 넘게는 입력 불가()
-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 쪽지 보내기 창이 열리고 받는 사람에 상품 등록자의 닉네임이 나옴. 
- 2. 정말 삭제하시겠습니까라는 확인과 취소할 수 있는 선택 창 후에 확인을 누르면 삭제되었습니다라는 메시지 창, 메인 화면으로 이동, 취소를 누르면 물품상세페이지에 그대로 있음 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃 이후 로그인이 필요한 서비스 클릭</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 내정보 , 물품등록, 쪽지 클릭</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>이지훈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>부적합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(부적합)</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1360,7 +1460,7 @@
     <numFmt numFmtId="188" formatCode="0.0"/>
     <numFmt numFmtId="189" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="90">
+  <fonts count="91">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1953,6 +2053,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="31">
@@ -7400,8 +7508,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="12"/>
@@ -8258,7 +8366,7 @@
       <c r="L8" s="50"/>
       <c r="M8" s="54"/>
     </row>
-    <row r="9" spans="1:13" ht="103.5">
+    <row r="9" spans="1:13" ht="120.75">
       <c r="A9" s="51" t="s">
         <v>186</v>
       </c>
@@ -8279,17 +8387,17 @@
         <v>173</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J9" s="54"/>
       <c r="K9" s="50"/>
       <c r="L9" s="50"/>
       <c r="M9" s="54"/>
     </row>
-    <row r="10" spans="1:13" ht="155.25">
+    <row r="10" spans="1:13" ht="172.5">
       <c r="A10" s="51" t="s">
         <v>191</v>
       </c>
@@ -8300,7 +8408,7 @@
         <v>201</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49" t="s">
@@ -8310,17 +8418,17 @@
         <v>173</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="J10" s="54"/>
       <c r="K10" s="50"/>
       <c r="L10" s="50"/>
       <c r="M10" s="54"/>
     </row>
-    <row r="11" spans="1:13" ht="155.25">
+    <row r="11" spans="1:13" ht="172.5">
       <c r="A11" s="51" t="s">
         <v>192</v>
       </c>
@@ -8328,26 +8436,26 @@
         <v>200</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>209</v>
-      </c>
       <c r="J11" s="54" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K11" s="50"/>
       <c r="L11" s="50"/>
@@ -8358,26 +8466,26 @@
         <v>193</v>
       </c>
       <c r="B12" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="52" t="s">
         <v>211</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>213</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G12" s="50" t="s">
         <v>173</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I12" s="49" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J12" s="54"/>
       <c r="K12" s="50"/>
@@ -8389,13 +8497,13 @@
         <v>194</v>
       </c>
       <c r="B13" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>217</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>219</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49" t="s">
@@ -8405,10 +8513,10 @@
         <v>173</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J13" s="54"/>
       <c r="K13" s="50"/>
@@ -8420,13 +8528,13 @@
         <v>195</v>
       </c>
       <c r="B14" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="52" t="s">
         <v>222</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>224</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49" t="s">
@@ -8436,10 +8544,10 @@
         <v>173</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J14" s="54"/>
       <c r="K14" s="50"/>
@@ -8451,57 +8559,57 @@
         <v>196</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="49" t="s">
         <v>172</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J15" s="54"/>
       <c r="K15" s="50"/>
       <c r="L15" s="50"/>
       <c r="M15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="120.75">
+    <row r="16" spans="1:13" ht="172.5">
       <c r="A16" s="51" t="s">
         <v>197</v>
       </c>
       <c r="B16" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>232</v>
-      </c>
       <c r="D16" s="52" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="E16" s="49"/>
       <c r="F16" s="49" t="s">
         <v>172</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J16" s="54"/>
       <c r="K16" s="50"/>
@@ -8513,13 +8621,13 @@
         <v>198</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="E17" s="49"/>
       <c r="F17" s="49" t="s">
@@ -8529,10 +8637,10 @@
         <v>173</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J17" s="54"/>
       <c r="K17" s="50"/>
@@ -8541,16 +8649,16 @@
     </row>
     <row r="18" spans="1:13" ht="103.5">
       <c r="A18" s="51" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="49" t="s">
@@ -8560,10 +8668,10 @@
         <v>173</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J18" s="54"/>
       <c r="K18" s="50"/>
@@ -8575,23 +8683,23 @@
         <v>199</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49" t="s">
         <v>172</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I19" s="49" t="s">
         <v>175</v>
@@ -8603,16 +8711,16 @@
     </row>
     <row r="20" spans="1:13" ht="17.25">
       <c r="A20" s="51" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B20" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>268</v>
-      </c>
       <c r="D20" s="52" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="49" t="s">
@@ -8622,10 +8730,10 @@
         <v>173</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J20" s="54"/>
       <c r="K20" s="50"/>
@@ -8634,29 +8742,29 @@
     </row>
     <row r="21" spans="1:13" ht="34.5">
       <c r="A21" s="51" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="49" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G21" s="50" t="s">
         <v>173</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J21" s="54"/>
       <c r="K21" s="50"/>
@@ -8665,7 +8773,7 @@
     </row>
     <row r="22" spans="1:13" ht="17.25">
       <c r="A22" s="51" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -8682,7 +8790,7 @@
     </row>
     <row r="23" spans="1:13" ht="17.25">
       <c r="A23" s="51" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
@@ -8699,7 +8807,7 @@
     </row>
     <row r="24" spans="1:13" ht="17.25">
       <c r="A24" s="51" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
@@ -8716,7 +8824,7 @@
     </row>
     <row r="25" spans="1:13" ht="17.25">
       <c r="A25" s="51" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
@@ -8733,7 +8841,7 @@
     </row>
     <row r="26" spans="1:13" ht="17.25">
       <c r="A26" s="51" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
@@ -8750,7 +8858,7 @@
     </row>
     <row r="27" spans="1:13" ht="17.25">
       <c r="A27" s="51" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
@@ -8767,7 +8875,7 @@
     </row>
     <row r="28" spans="1:13" ht="17.25">
       <c r="A28" s="51" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -8784,7 +8892,7 @@
     </row>
     <row r="29" spans="1:13" ht="17.25">
       <c r="A29" s="51" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
@@ -8801,7 +8909,7 @@
     </row>
     <row r="30" spans="1:13" ht="17.25">
       <c r="A30" s="51" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>

--- a/ppt/테스트시나리오및결과서 이지훈.xlsx
+++ b/ppt/테스트시나리오및결과서 이지훈.xlsx
@@ -1418,7 +1418,7 @@
   <si>
     <r>
       <t xml:space="preserve">
-현재 비밀번호가 일치해도 현재 비밀번호 메시지가 일치하지 않는다는 메시지 창</t>
+현재 비밀번호를 맞게 입력해도 현재 비밀번가 일치하지 않는다는 메시지 창</t>
     </r>
     <r>
       <rPr>
@@ -7508,8 +7508,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="12"/>
